--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32862.6586486043</v>
+        <v>6539669.071072258</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32862.6586486043</v>
+        <v>6539669.071072258</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5077.57967765293</v>
+        <v>305541.2960559208</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5077.57967765293</v>
+        <v>305541.2960559208</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959736219.0059109</v>
+        <v>39947626.76751831</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9048.029806148495</v>
+        <v>989724.0685873909</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16873.06983946592</v>
+        <v>1776834.718795262</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24698.10987278333</v>
+        <v>2563945.369003135</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32747.42948672287</v>
+        <v>3335540.668333607</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40666.8614509635</v>
+        <v>4122410.599664203</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48586.2934152039</v>
+        <v>4909280.530994838</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56505.72537944429</v>
+        <v>5696150.462325472</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64425.1573436847</v>
+        <v>6483020.393656107</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72506.5873720346</v>
+        <v>7242230.900466561</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80478.11860470356</v>
+        <v>8020862.505575014</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88421.65961437975</v>
+        <v>8810901.619086783</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96350.48472805644</v>
+        <v>9598012.269294661</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104279.3098417331</v>
+        <v>10385122.91950254</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112198.5972231051</v>
+        <v>11171964.07884246</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120432.9641500298</v>
+        <v>11932887.84748363</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>305.9999999997702</v>
@@ -27055,10 +27055,10 @@
         <v>1.13517695502378e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>244.9999999998864</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
